--- a/documentation/Schoolbook_bugs.xlsx
+++ b/documentation/Schoolbook_bugs.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ученик" sheetId="1" r:id="rId1"/>
     <sheet name="Учител" sheetId="2" r:id="rId2"/>
     <sheet name="Родител" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t xml:space="preserve">дата на откриване на бъга </t>
   </si>
@@ -39,12 +34,18 @@
   <si>
     <t>описание</t>
   </si>
+  <si>
+    <t>поправен</t>
+  </si>
+  <si>
+    <t>липсващ gitignore файл</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,15 +96,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -161,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -196,7 +198,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -373,29 +375,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -415,22 +417,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="81.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -442,6 +444,17 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>44541</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -450,22 +463,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/documentation/Schoolbook_bugs.xlsx
+++ b/documentation/Schoolbook_bugs.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
@@ -16,9 +11,9 @@
     <sheet name="Учител" sheetId="2" r:id="rId2"/>
     <sheet name="Родител" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t xml:space="preserve">дата на откриване на бъга </t>
   </si>
@@ -38,13 +33,25 @@
   </si>
   <si>
     <t>описание</t>
+  </si>
+  <si>
+    <t>15.12.21г.</t>
+  </si>
+  <si>
+    <t>поправен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           -</t>
+  </si>
+  <si>
+    <t>снимките бяха в различни папки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -196,7 +203,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -373,29 +380,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -407,6 +414,20 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -415,14 +436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
@@ -430,7 +451,7 @@
     <col min="4" max="4" width="17.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -450,14 +471,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="1" customWidth="1"/>
@@ -465,7 +486,7 @@
     <col min="4" max="4" width="18.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
